--- a/plan/日本9天住宿.xlsx
+++ b/plan/日本9天住宿.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,39 @@
 京都府京都市 南区東九条西岩本町26-1
 旅途时间：大约 23 分钟 行程总价： 230円
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Route-Inn Osaka Honmachi </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">550-0005 大阪府, Osaka, 2-6-6 Nishi-hommachi Nishi (电话: +81665348211) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘公共交通工具前往 Hotel Route Inn Osaka Hommachi 的路线
+アルモントホテル京都
+日本〒601-8005
+京都府京都市 南区東九条西岩本町26-1
+ 步行 步行到 Kyoto Station
+大约 10 分钟 (700 米)
+Kyoto Station (第 13,14 站台)
+ JR Tokaido / Sanyo Shinkansen JR Tokaido / Sanyo Shinkansen 3,220円 のぞみ 新干线 Nozomi 177 开往：Hakata
+下午4:00 - 下午4:13 （13 分钟， 1 站）
+Shinosaka Station (第 1 站台)
+ 地铁Midosuji Line 240円 各停 地铁 开往：Abiko
+下午4:32 - 下午4:43 （11 分钟， 5 站）
+Honmachi Station (第 2 站台)
+ 地铁Chuo Line 各停 地铁 开往：Cosmo Square
+下午4:47 - 下午4:48 （1 分钟， 1 站）
+Awaza Station
+ 步行 步行到 Hotel Route Inn Osaka Hommachi
+大约 4 分钟 (300 米)
+Hotel Route Inn Osaka Hommachi
+2-6-6 Nishihonmachi
+Nishi Ward, Osaka, Osaka Prefecture 550-0005日本
+旅途时间：大约 1 小时 2 分钟 行程总价： 3,460円</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,29 +285,29 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -574,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -610,13 +643,13 @@
       <c r="B2" s="5">
         <v>41776</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -628,8 +661,8 @@
         <v>41777</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
@@ -641,10 +674,10 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -656,8 +689,8 @@
         <v>41779</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
@@ -667,8 +700,8 @@
         <v>41780</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
@@ -678,8 +711,8 @@
         <v>41781</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
@@ -691,10 +724,10 @@
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -706,8 +739,8 @@
         <v>41783</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
@@ -717,8 +750,8 @@
         <v>41784</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -737,15 +770,15 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="237" customHeight="1">
       <c r="A14" s="9" t="s">
@@ -757,24 +790,24 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
@@ -784,18 +817,24 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="351.75" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
@@ -868,13 +907,10 @@
       <c r="E29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A15:B15"/>
+  <mergeCells count="18">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C7"/>
@@ -884,6 +920,12 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
